--- a/relatorios/repasses_liberados/dentistas/12253457400/2023-08-25_relatorio_repasses_12253457400.xlsx
+++ b/relatorios/repasses_liberados/dentistas/12253457400/2023-08-25_relatorio_repasses_12253457400.xlsx
@@ -9439,7 +9439,7 @@
         <v>0</v>
       </c>
       <c r="M173">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N173">
         <v>0</v>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="M176">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N176">
         <v>0</v>
@@ -10627,7 +10627,7 @@
         <v>0</v>
       </c>
       <c r="M200">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N200">
         <v>0</v>
@@ -10715,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="M202">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N202">
         <v>0</v>
@@ -11155,7 +11155,7 @@
         <v>0</v>
       </c>
       <c r="M212">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N212">
         <v>0</v>
@@ -11199,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="M213">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N213">
         <v>0</v>
@@ -11463,7 +11463,7 @@
         <v>0</v>
       </c>
       <c r="M219">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N219">
         <v>0</v>
@@ -11507,7 +11507,7 @@
         <v>0</v>
       </c>
       <c r="M220">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N220">
         <v>0</v>
@@ -11859,7 +11859,7 @@
         <v>0</v>
       </c>
       <c r="M228">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N228">
         <v>0</v>
@@ -11903,7 +11903,7 @@
         <v>0</v>
       </c>
       <c r="M229">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N229">
         <v>0</v>
@@ -11991,7 +11991,7 @@
         <v>0</v>
       </c>
       <c r="M231">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N231">
         <v>0</v>
@@ -12255,7 +12255,7 @@
         <v>0</v>
       </c>
       <c r="M237">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N237">
         <v>0</v>
@@ -12299,7 +12299,7 @@
         <v>0</v>
       </c>
       <c r="M238">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N238">
         <v>0</v>
@@ -12343,7 +12343,7 @@
         <v>0</v>
       </c>
       <c r="M239">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N239">
         <v>0</v>
@@ -12387,7 +12387,7 @@
         <v>0</v>
       </c>
       <c r="M240">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N240">
         <v>0</v>
@@ -13663,7 +13663,7 @@
         <v>0</v>
       </c>
       <c r="M269">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N269">
         <v>0</v>
@@ -13795,7 +13795,7 @@
         <v>0</v>
       </c>
       <c r="M272">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N272">
         <v>0</v>
@@ -13839,7 +13839,7 @@
         <v>0</v>
       </c>
       <c r="M273">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N273">
         <v>0</v>
@@ -14719,7 +14719,7 @@
         <v>0</v>
       </c>
       <c r="M293">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N293">
         <v>0</v>
@@ -15951,7 +15951,7 @@
         <v>0</v>
       </c>
       <c r="M321">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N321">
         <v>0</v>
@@ -16831,7 +16831,7 @@
         <v>0</v>
       </c>
       <c r="M341">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N341">
         <v>0</v>
@@ -16875,7 +16875,7 @@
         <v>0</v>
       </c>
       <c r="M342">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N342">
         <v>0</v>
@@ -19383,7 +19383,7 @@
         <v>0</v>
       </c>
       <c r="M399">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N399">
         <v>0</v>
@@ -19515,7 +19515,7 @@
         <v>0</v>
       </c>
       <c r="M402">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N402">
         <v>0</v>
@@ -20219,7 +20219,7 @@
         <v>0</v>
       </c>
       <c r="M418">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N418">
         <v>0</v>
@@ -20263,7 +20263,7 @@
         <v>0</v>
       </c>
       <c r="M419">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N419">
         <v>0</v>
@@ -20791,7 +20791,7 @@
         <v>0</v>
       </c>
       <c r="M431">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N431">
         <v>0</v>
@@ -20879,7 +20879,7 @@
         <v>0</v>
       </c>
       <c r="M433">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N433">
         <v>0</v>
@@ -22111,7 +22111,7 @@
         <v>0</v>
       </c>
       <c r="M461">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="N461">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="M476">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N476">
         <v>0</v>
@@ -22991,7 +22991,7 @@
         <v>0</v>
       </c>
       <c r="M481">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N481">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>0</v>
       </c>
       <c r="M482">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N482">
         <v>0</v>
@@ -23079,7 +23079,7 @@
         <v>0</v>
       </c>
       <c r="M483">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N483">
         <v>0</v>
@@ -23299,7 +23299,7 @@
         <v>0</v>
       </c>
       <c r="M488">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N488">
         <v>0</v>
@@ -23343,7 +23343,7 @@
         <v>0</v>
       </c>
       <c r="M489">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N489">
         <v>0</v>
@@ -24707,7 +24707,7 @@
         <v>0</v>
       </c>
       <c r="M520">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N520">
         <v>0</v>
@@ -25367,7 +25367,7 @@
         <v>0</v>
       </c>
       <c r="M535">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N535">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="M536">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N536">
         <v>0</v>
@@ -26819,7 +26819,7 @@
         <v>0</v>
       </c>
       <c r="M568">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N568">
         <v>0</v>
@@ -26951,7 +26951,7 @@
         <v>0</v>
       </c>
       <c r="M571">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N571">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="M572">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N572">
         <v>0</v>
@@ -27039,7 +27039,7 @@
         <v>0</v>
       </c>
       <c r="M573">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N573">
         <v>0</v>
@@ -27347,7 +27347,7 @@
         <v>0</v>
       </c>
       <c r="M580">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N580">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="M582">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N582">
         <v>0</v>
@@ -43011,7 +43011,7 @@
         <v>0</v>
       </c>
       <c r="M936">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N936">
         <v>0</v>
@@ -43099,7 +43099,7 @@
         <v>0</v>
       </c>
       <c r="M938">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N938">
         <v>0</v>
@@ -43495,7 +43495,7 @@
         <v>0</v>
       </c>
       <c r="M947">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N947">
         <v>0</v>
@@ -43583,7 +43583,7 @@
         <v>0</v>
       </c>
       <c r="M949">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N949">
         <v>0</v>
@@ -43627,7 +43627,7 @@
         <v>0</v>
       </c>
       <c r="M950">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N950">
         <v>0</v>
@@ -43979,7 +43979,7 @@
         <v>0</v>
       </c>
       <c r="M958">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N958">
         <v>0</v>
@@ -44023,7 +44023,7 @@
         <v>0</v>
       </c>
       <c r="M959">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N959">
         <v>0</v>
@@ -45079,7 +45079,7 @@
         <v>0</v>
       </c>
       <c r="M983">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N983">
         <v>0</v>
@@ -45871,7 +45871,7 @@
         <v>0</v>
       </c>
       <c r="M1001">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1001">
         <v>0</v>
@@ -46355,7 +46355,7 @@
         <v>0</v>
       </c>
       <c r="M1012">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1012">
         <v>0</v>
@@ -46487,7 +46487,7 @@
         <v>0</v>
       </c>
       <c r="M1015">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1015">
         <v>0</v>
@@ -46795,7 +46795,7 @@
         <v>0</v>
       </c>
       <c r="M1022">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1022">
         <v>0</v>
@@ -46839,7 +46839,7 @@
         <v>0</v>
       </c>
       <c r="M1023">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1023">
         <v>0</v>
@@ -47191,7 +47191,7 @@
         <v>0</v>
       </c>
       <c r="M1031">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1031">
         <v>0</v>
@@ -47235,7 +47235,7 @@
         <v>0</v>
       </c>
       <c r="M1032">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1032">
         <v>0</v>
@@ -47323,7 +47323,7 @@
         <v>0</v>
       </c>
       <c r="M1034">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1034">
         <v>0</v>
@@ -48203,7 +48203,7 @@
         <v>0</v>
       </c>
       <c r="M1054">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1054">
         <v>0</v>
@@ -48467,7 +48467,7 @@
         <v>0</v>
       </c>
       <c r="M1060">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1060">
         <v>0</v>
@@ -48511,7 +48511,7 @@
         <v>0</v>
       </c>
       <c r="M1061">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1061">
         <v>0</v>
@@ -48599,7 +48599,7 @@
         <v>0</v>
       </c>
       <c r="M1063">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1063">
         <v>0</v>
@@ -48643,7 +48643,7 @@
         <v>0</v>
       </c>
       <c r="M1064">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1064">
         <v>0</v>
@@ -49611,7 +49611,7 @@
         <v>0</v>
       </c>
       <c r="M1086">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N1086">
         <v>0</v>
@@ -49699,7 +49699,7 @@
         <v>0</v>
       </c>
       <c r="M1088">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N1088">
         <v>0</v>
@@ -49919,7 +49919,7 @@
         <v>0</v>
       </c>
       <c r="M1093">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1093">
         <v>0</v>
@@ -50227,7 +50227,7 @@
         <v>0</v>
       </c>
       <c r="M1100">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1100">
         <v>0</v>
@@ -50271,7 +50271,7 @@
         <v>0</v>
       </c>
       <c r="M1101">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1101">
         <v>0</v>
@@ -51019,7 +51019,7 @@
         <v>0</v>
       </c>
       <c r="M1118">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N1118">
         <v>0</v>
@@ -51063,7 +51063,7 @@
         <v>0</v>
       </c>
       <c r="M1119">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N1119">
         <v>0</v>
@@ -51503,7 +51503,7 @@
         <v>0</v>
       </c>
       <c r="M1129">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1129">
         <v>0</v>
@@ -52031,7 +52031,7 @@
         <v>0</v>
       </c>
       <c r="M1141">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="N1141">
         <v>0</v>

--- a/relatorios/repasses_liberados/dentistas/12253457400/2023-08-25_relatorio_repasses_12253457400.xlsx
+++ b/relatorios/repasses_liberados/dentistas/12253457400/2023-08-25_relatorio_repasses_12253457400.xlsx
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -3103,10 +3103,10 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>0.051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -3191,10 +3191,10 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>7.257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N42">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -3719,10 +3719,10 @@
         <v>0</v>
       </c>
       <c r="M43">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N43">
-        <v>2.592</v>
+        <v>3.456</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -3807,10 +3807,10 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N45">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -3851,10 +3851,10 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N46">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3983,10 +3983,10 @@
         <v>0</v>
       </c>
       <c r="M49">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N49">
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -4203,10 +4203,10 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N54">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -4511,10 +4511,10 @@
         <v>0</v>
       </c>
       <c r="M61">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N61">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -4555,10 +4555,10 @@
         <v>0</v>
       </c>
       <c r="M62">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N62">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -4775,10 +4775,10 @@
         <v>0</v>
       </c>
       <c r="M67">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N67">
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -4819,10 +4819,10 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N68">
-        <v>3.6</v>
+        <v>4.800000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -4863,10 +4863,10 @@
         <v>0</v>
       </c>
       <c r="M69">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N69">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -4995,10 +4995,10 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N72">
-        <v>13.083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -5083,10 +5083,10 @@
         <v>0</v>
       </c>
       <c r="M74">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N74">
-        <v>3.798</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -5127,10 +5127,10 @@
         <v>0</v>
       </c>
       <c r="M75">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N75">
-        <v>3.798</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -5171,10 +5171,10 @@
         <v>0</v>
       </c>
       <c r="M76">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N76">
-        <v>3.798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -5743,10 +5743,10 @@
         <v>0</v>
       </c>
       <c r="M89">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N89">
-        <v>6.861</v>
+        <v>9.148000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -5787,10 +5787,10 @@
         <v>0</v>
       </c>
       <c r="M90">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N90">
-        <v>18.471</v>
+        <v>24.628</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -5919,10 +5919,10 @@
         <v>0</v>
       </c>
       <c r="M93">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N93">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -6007,10 +6007,10 @@
         <v>0</v>
       </c>
       <c r="M95">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N95">
-        <v>18.471</v>
+        <v>24.628</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -6183,10 +6183,10 @@
         <v>0</v>
       </c>
       <c r="M99">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N99">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -6227,10 +6227,10 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N100">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -6359,10 +6359,10 @@
         <v>0</v>
       </c>
       <c r="M103">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N103">
-        <v>5.184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -6403,10 +6403,10 @@
         <v>0</v>
       </c>
       <c r="M104">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N104">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -6447,10 +6447,10 @@
         <v>0</v>
       </c>
       <c r="M105">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N105">
-        <v>6.6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -6535,10 +6535,10 @@
         <v>0</v>
       </c>
       <c r="M107">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N107">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -6843,10 +6843,10 @@
         <v>0</v>
       </c>
       <c r="M114">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N114">
-        <v>6.6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -6887,10 +6887,10 @@
         <v>0</v>
       </c>
       <c r="M115">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N115">
-        <v>6.6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -6931,10 +6931,10 @@
         <v>0</v>
       </c>
       <c r="M116">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N116">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -7107,10 +7107,10 @@
         <v>0</v>
       </c>
       <c r="M120">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N120">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -7151,10 +7151,10 @@
         <v>0</v>
       </c>
       <c r="M121">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N121">
-        <v>6.6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -7767,10 +7767,10 @@
         <v>0</v>
       </c>
       <c r="M135">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N135">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -7811,10 +7811,10 @@
         <v>0</v>
       </c>
       <c r="M136">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N136">
-        <v>5.184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -8427,10 +8427,10 @@
         <v>0</v>
       </c>
       <c r="M150">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N150">
-        <v>3.6</v>
+        <v>4.800000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:14">
@@ -8471,10 +8471,10 @@
         <v>0</v>
       </c>
       <c r="M151">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N151">
-        <v>2.592</v>
+        <v>3.456</v>
       </c>
     </row>
     <row r="152" spans="1:14">
@@ -8515,10 +8515,10 @@
         <v>0</v>
       </c>
       <c r="M152">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N152">
-        <v>6.6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="153" spans="1:14">
@@ -8559,10 +8559,10 @@
         <v>0</v>
       </c>
       <c r="M153">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N153">
-        <v>5.184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:14">
@@ -8603,10 +8603,10 @@
         <v>0</v>
       </c>
       <c r="M154">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N154">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:14">
@@ -8823,10 +8823,10 @@
         <v>0</v>
       </c>
       <c r="M159">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N159">
-        <v>1.98</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160" spans="1:14">
@@ -9307,10 +9307,10 @@
         <v>0</v>
       </c>
       <c r="M170">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N170">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:14">
@@ -9439,7 +9439,7 @@
         <v>0</v>
       </c>
       <c r="M173">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N173">
         <v>0</v>
@@ -9791,7 +9791,7 @@
         <v>0</v>
       </c>
       <c r="M181">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N181">
         <v>0</v>
@@ -9879,7 +9879,7 @@
         <v>0</v>
       </c>
       <c r="M183">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N183">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>1</v>
       </c>
       <c r="M190">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N190">
-        <v>44.4</v>
+        <v>59.2</v>
       </c>
     </row>
     <row r="191" spans="1:14">
@@ -10407,7 +10407,7 @@
         <v>0</v>
       </c>
       <c r="M195">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N195">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="M196">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N196">
         <v>0</v>
@@ -10539,7 +10539,7 @@
         <v>0</v>
       </c>
       <c r="M198">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N198">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="M199">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N199">
         <v>0</v>
@@ -10671,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="M201">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N201">
         <v>0</v>
@@ -10715,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="M202">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N202">
         <v>0</v>
@@ -10759,7 +10759,7 @@
         <v>0</v>
       </c>
       <c r="M203">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N203">
         <v>0</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="M205">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N205">
         <v>0</v>
@@ -10935,7 +10935,7 @@
         <v>0</v>
       </c>
       <c r="M207">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N207">
         <v>0</v>
@@ -11023,7 +11023,7 @@
         <v>0</v>
       </c>
       <c r="M209">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N209">
         <v>0</v>
@@ -11067,7 +11067,7 @@
         <v>0</v>
       </c>
       <c r="M210">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N210">
         <v>0</v>
@@ -11111,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="M211">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N211">
         <v>0</v>
@@ -11155,7 +11155,7 @@
         <v>0</v>
       </c>
       <c r="M212">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N212">
         <v>0</v>
@@ -11243,7 +11243,7 @@
         <v>0</v>
       </c>
       <c r="M214">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N214">
         <v>0</v>
@@ -11463,7 +11463,7 @@
         <v>0</v>
       </c>
       <c r="M219">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N219">
         <v>0</v>
@@ -11507,7 +11507,7 @@
         <v>0</v>
       </c>
       <c r="M220">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N220">
         <v>0</v>
@@ -11859,7 +11859,7 @@
         <v>0</v>
       </c>
       <c r="M228">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N228">
         <v>0</v>
@@ -11903,7 +11903,7 @@
         <v>0</v>
       </c>
       <c r="M229">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N229">
         <v>0</v>
@@ -11947,7 +11947,7 @@
         <v>0</v>
       </c>
       <c r="M230">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N230">
         <v>0</v>
@@ -12123,7 +12123,7 @@
         <v>0</v>
       </c>
       <c r="M234">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N234">
         <v>0</v>
@@ -12167,7 +12167,7 @@
         <v>0</v>
       </c>
       <c r="M235">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N235">
         <v>0</v>
@@ -12211,7 +12211,7 @@
         <v>0</v>
       </c>
       <c r="M236">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N236">
         <v>0</v>
@@ -12255,7 +12255,7 @@
         <v>0</v>
       </c>
       <c r="M237">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N237">
         <v>0</v>
@@ -12299,7 +12299,7 @@
         <v>0</v>
       </c>
       <c r="M238">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N238">
         <v>0</v>
@@ -12343,7 +12343,7 @@
         <v>0</v>
       </c>
       <c r="M239">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N239">
         <v>0</v>
@@ -12387,7 +12387,7 @@
         <v>0</v>
       </c>
       <c r="M240">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="N240">
         <v>0</v>
@@ -12739,7 +12739,7 @@
         <v>0</v>
       </c>
       <c r="M248">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N248">
         <v>0</v>
@@ -12827,7 +12827,7 @@
         <v>0</v>
       </c>
       <c r="M250">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N250">
         <v>0</v>
@@ -12871,7 +12871,7 @@
         <v>0</v>
       </c>
       <c r="M251">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N251">
         <v>0</v>
@@ -12959,7 +12959,7 @@
         <v>0</v>
       </c>
       <c r="M253">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N253">
         <v>0</v>
@@ -13047,7 +13047,7 @@
         <v>0</v>
       </c>
       <c r="M255">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N255">
         <v>0</v>
@@ -13091,7 +13091,7 @@
         <v>0</v>
       </c>
       <c r="M256">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N256">
         <v>0</v>
@@ -13135,7 +13135,7 @@
         <v>0</v>
       </c>
       <c r="M257">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N257">
         <v>0</v>
@@ -13619,7 +13619,7 @@
         <v>0</v>
       </c>
       <c r="M268">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N268">
         <v>0</v>
@@ -13663,7 +13663,7 @@
         <v>0</v>
       </c>
       <c r="M269">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N269">
         <v>0</v>
@@ -13707,7 +13707,7 @@
         <v>0</v>
       </c>
       <c r="M270">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N270">
         <v>0</v>
@@ -13751,7 +13751,7 @@
         <v>0</v>
       </c>
       <c r="M271">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N271">
         <v>0</v>
@@ -13839,7 +13839,7 @@
         <v>0</v>
       </c>
       <c r="M273">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N273">
         <v>0</v>
@@ -14059,7 +14059,7 @@
         <v>0</v>
       </c>
       <c r="M278">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N278">
         <v>0</v>
@@ -14147,7 +14147,7 @@
         <v>0</v>
       </c>
       <c r="M280">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N280">
         <v>0</v>
@@ -14455,7 +14455,7 @@
         <v>0</v>
       </c>
       <c r="M287">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N287">
         <v>0</v>
@@ -14499,7 +14499,7 @@
         <v>0</v>
       </c>
       <c r="M288">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N288">
         <v>0</v>
@@ -14631,7 +14631,7 @@
         <v>0</v>
       </c>
       <c r="M291">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N291">
         <v>0</v>
@@ -14675,7 +14675,7 @@
         <v>0</v>
       </c>
       <c r="M292">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N292">
         <v>0</v>
@@ -15423,7 +15423,7 @@
         <v>0</v>
       </c>
       <c r="M309">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N309">
         <v>0</v>
@@ -15555,7 +15555,7 @@
         <v>0</v>
       </c>
       <c r="M312">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N312">
         <v>0</v>
@@ -15599,7 +15599,7 @@
         <v>0</v>
       </c>
       <c r="M313">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N313">
         <v>0</v>
@@ -15643,7 +15643,7 @@
         <v>0</v>
       </c>
       <c r="M314">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N314">
         <v>0</v>
@@ -15775,7 +15775,7 @@
         <v>0</v>
       </c>
       <c r="M317">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N317">
         <v>0</v>
@@ -15863,7 +15863,7 @@
         <v>0</v>
       </c>
       <c r="M319">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N319">
         <v>0</v>
@@ -15907,7 +15907,7 @@
         <v>0</v>
       </c>
       <c r="M320">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N320">
         <v>0</v>
@@ -15951,7 +15951,7 @@
         <v>0</v>
       </c>
       <c r="M321">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N321">
         <v>0</v>
@@ -16083,7 +16083,7 @@
         <v>0</v>
       </c>
       <c r="M324">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N324">
         <v>0</v>
@@ -16171,7 +16171,7 @@
         <v>0</v>
       </c>
       <c r="M326">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N326">
         <v>0</v>
@@ -16215,7 +16215,7 @@
         <v>0</v>
       </c>
       <c r="M327">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N327">
         <v>0</v>
@@ -16259,7 +16259,7 @@
         <v>0</v>
       </c>
       <c r="M328">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N328">
         <v>0</v>
@@ -16303,7 +16303,7 @@
         <v>0</v>
       </c>
       <c r="M329">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N329">
         <v>0</v>
@@ -16347,7 +16347,7 @@
         <v>0</v>
       </c>
       <c r="M330">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N330">
         <v>0</v>
@@ -16391,7 +16391,7 @@
         <v>0</v>
       </c>
       <c r="M331">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N331">
         <v>0</v>
@@ -16435,7 +16435,7 @@
         <v>0</v>
       </c>
       <c r="M332">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N332">
         <v>0</v>
@@ -16479,7 +16479,7 @@
         <v>0</v>
       </c>
       <c r="M333">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N333">
         <v>0</v>
@@ -16523,7 +16523,7 @@
         <v>0</v>
       </c>
       <c r="M334">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N334">
         <v>0</v>
@@ -16567,7 +16567,7 @@
         <v>0</v>
       </c>
       <c r="M335">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N335">
         <v>0</v>
@@ -16611,7 +16611,7 @@
         <v>0</v>
       </c>
       <c r="M336">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N336">
         <v>0</v>
@@ -16655,7 +16655,7 @@
         <v>0</v>
       </c>
       <c r="M337">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N337">
         <v>0</v>
@@ -16831,7 +16831,7 @@
         <v>0</v>
       </c>
       <c r="M341">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N341">
         <v>0</v>
@@ -16919,7 +16919,7 @@
         <v>0</v>
       </c>
       <c r="M343">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N343">
         <v>0</v>
@@ -16963,7 +16963,7 @@
         <v>0</v>
       </c>
       <c r="M344">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N344">
         <v>0</v>
@@ -17007,7 +17007,7 @@
         <v>0</v>
       </c>
       <c r="M345">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N345">
         <v>0</v>
@@ -17887,7 +17887,7 @@
         <v>0</v>
       </c>
       <c r="M365">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="N365">
         <v>0</v>
@@ -17931,7 +17931,7 @@
         <v>0</v>
       </c>
       <c r="M366">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N366">
         <v>0</v>
@@ -18371,7 +18371,7 @@
         <v>0</v>
       </c>
       <c r="M376">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N376">
         <v>0</v>
@@ -18459,7 +18459,7 @@
         <v>0</v>
       </c>
       <c r="M378">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N378">
         <v>0</v>
@@ -18503,7 +18503,7 @@
         <v>0</v>
       </c>
       <c r="M379">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N379">
         <v>0</v>
@@ -18811,7 +18811,7 @@
         <v>0</v>
       </c>
       <c r="M386">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N386">
         <v>0</v>
@@ -18943,7 +18943,7 @@
         <v>0</v>
       </c>
       <c r="M389">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N389">
         <v>0</v>
@@ -19031,7 +19031,7 @@
         <v>0</v>
       </c>
       <c r="M391">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N391">
         <v>0</v>
@@ -19163,7 +19163,7 @@
         <v>0</v>
       </c>
       <c r="M394">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N394">
         <v>0</v>
@@ -19295,7 +19295,7 @@
         <v>0</v>
       </c>
       <c r="M397">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N397">
         <v>0</v>
@@ -19427,7 +19427,7 @@
         <v>0</v>
       </c>
       <c r="M400">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N400">
         <v>0</v>
@@ -19515,7 +19515,7 @@
         <v>0</v>
       </c>
       <c r="M402">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N402">
         <v>0</v>
@@ -19779,7 +19779,7 @@
         <v>0</v>
       </c>
       <c r="M408">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N408">
         <v>0</v>
@@ -19955,7 +19955,7 @@
         <v>0</v>
       </c>
       <c r="M412">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N412">
         <v>0</v>
@@ -19999,7 +19999,7 @@
         <v>0</v>
       </c>
       <c r="M413">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N413">
         <v>0</v>
@@ -20219,7 +20219,7 @@
         <v>0</v>
       </c>
       <c r="M418">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N418">
         <v>0</v>
@@ -20263,7 +20263,7 @@
         <v>0</v>
       </c>
       <c r="M419">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N419">
         <v>0</v>
@@ -20351,7 +20351,7 @@
         <v>0</v>
       </c>
       <c r="M421">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N421">
         <v>0</v>
@@ -20483,7 +20483,7 @@
         <v>0</v>
       </c>
       <c r="M424">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N424">
         <v>0</v>
@@ -20571,7 +20571,7 @@
         <v>0</v>
       </c>
       <c r="M426">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N426">
         <v>0</v>
@@ -20615,7 +20615,7 @@
         <v>0</v>
       </c>
       <c r="M427">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N427">
         <v>0</v>
@@ -20659,7 +20659,7 @@
         <v>0</v>
       </c>
       <c r="M428">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N428">
         <v>0</v>
@@ -20703,7 +20703,7 @@
         <v>0</v>
       </c>
       <c r="M429">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N429">
         <v>0</v>
@@ -20835,7 +20835,7 @@
         <v>0</v>
       </c>
       <c r="M432">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N432">
         <v>0</v>
@@ -21099,7 +21099,7 @@
         <v>0</v>
       </c>
       <c r="M438">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N438">
         <v>0</v>
@@ -21187,7 +21187,7 @@
         <v>0</v>
       </c>
       <c r="M440">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N440">
         <v>0</v>
@@ -21671,7 +21671,7 @@
         <v>0</v>
       </c>
       <c r="M451">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N451">
         <v>0</v>
@@ -21715,7 +21715,7 @@
         <v>0</v>
       </c>
       <c r="M452">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N452">
         <v>0</v>
@@ -21803,7 +21803,7 @@
         <v>0</v>
       </c>
       <c r="M454">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N454">
         <v>0</v>
@@ -22155,7 +22155,7 @@
         <v>0</v>
       </c>
       <c r="M462">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N462">
         <v>0</v>
@@ -22419,7 +22419,7 @@
         <v>0</v>
       </c>
       <c r="M468">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N468">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="M476">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N476">
         <v>0</v>
@@ -22859,7 +22859,7 @@
         <v>0</v>
       </c>
       <c r="M478">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N478">
         <v>0</v>
@@ -22903,7 +22903,7 @@
         <v>0</v>
       </c>
       <c r="M479">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N479">
         <v>0</v>
@@ -22991,7 +22991,7 @@
         <v>0</v>
       </c>
       <c r="M481">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N481">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>0</v>
       </c>
       <c r="M482">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N482">
         <v>0</v>
@@ -23079,7 +23079,7 @@
         <v>0</v>
       </c>
       <c r="M483">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N483">
         <v>0</v>
@@ -23123,7 +23123,7 @@
         <v>0</v>
       </c>
       <c r="M484">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N484">
         <v>0</v>
@@ -23343,7 +23343,7 @@
         <v>0</v>
       </c>
       <c r="M489">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N489">
         <v>0</v>
@@ -23607,7 +23607,7 @@
         <v>0</v>
       </c>
       <c r="M495">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N495">
         <v>0</v>
@@ -23695,7 +23695,7 @@
         <v>0</v>
       </c>
       <c r="M497">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N497">
         <v>0</v>
@@ -24003,7 +24003,7 @@
         <v>0</v>
       </c>
       <c r="M504">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N504">
         <v>0</v>
@@ -24047,7 +24047,7 @@
         <v>0</v>
       </c>
       <c r="M505">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N505">
         <v>0</v>
@@ -24091,7 +24091,7 @@
         <v>0</v>
       </c>
       <c r="M506">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N506">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="M507">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N507">
         <v>0</v>
@@ -24179,7 +24179,7 @@
         <v>0</v>
       </c>
       <c r="M508">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N508">
         <v>0</v>
@@ -24267,7 +24267,7 @@
         <v>0</v>
       </c>
       <c r="M510">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N510">
         <v>0</v>
@@ -24399,7 +24399,7 @@
         <v>0</v>
       </c>
       <c r="M513">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N513">
         <v>0</v>
@@ -24443,7 +24443,7 @@
         <v>0</v>
       </c>
       <c r="M514">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N514">
         <v>0</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="M515">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N515">
         <v>0</v>
@@ -24531,7 +24531,7 @@
         <v>0</v>
       </c>
       <c r="M516">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N516">
         <v>0</v>
@@ -24751,7 +24751,7 @@
         <v>0</v>
       </c>
       <c r="M521">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N521">
         <v>0</v>
@@ -24795,7 +24795,7 @@
         <v>0</v>
       </c>
       <c r="M522">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N522">
         <v>0</v>
@@ -24971,7 +24971,7 @@
         <v>0</v>
       </c>
       <c r="M526">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N526">
         <v>0</v>
@@ -25367,7 +25367,7 @@
         <v>0</v>
       </c>
       <c r="M535">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N535">
         <v>0</v>
@@ -25455,7 +25455,7 @@
         <v>0</v>
       </c>
       <c r="M537">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N537">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="M546">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N546">
         <v>0</v>
@@ -25895,7 +25895,7 @@
         <v>0</v>
       </c>
       <c r="M547">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N547">
         <v>0</v>
@@ -25939,7 +25939,7 @@
         <v>0</v>
       </c>
       <c r="M548">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N548">
         <v>0</v>
@@ -26115,7 +26115,7 @@
         <v>0</v>
       </c>
       <c r="M552">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N552">
         <v>0</v>
@@ -26159,7 +26159,7 @@
         <v>0</v>
       </c>
       <c r="M553">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N553">
         <v>0</v>
@@ -26203,7 +26203,7 @@
         <v>0</v>
       </c>
       <c r="M554">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N554">
         <v>0</v>
@@ -26247,7 +26247,7 @@
         <v>0</v>
       </c>
       <c r="M555">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N555">
         <v>0</v>
@@ -26555,7 +26555,7 @@
         <v>0</v>
       </c>
       <c r="M562">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N562">
         <v>0</v>
@@ -26863,7 +26863,7 @@
         <v>0</v>
       </c>
       <c r="M569">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N569">
         <v>0</v>
@@ -26907,7 +26907,7 @@
         <v>0</v>
       </c>
       <c r="M570">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N570">
         <v>0</v>
@@ -26951,7 +26951,7 @@
         <v>0</v>
       </c>
       <c r="M571">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N571">
         <v>0</v>
@@ -27039,7 +27039,7 @@
         <v>0</v>
       </c>
       <c r="M573">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N573">
         <v>0</v>
@@ -27259,7 +27259,7 @@
         <v>0</v>
       </c>
       <c r="M578">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N578">
         <v>0</v>
@@ -27303,7 +27303,7 @@
         <v>0</v>
       </c>
       <c r="M579">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N579">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="M581">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N581">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="M582">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N582">
         <v>0</v>
@@ -27479,7 +27479,7 @@
         <v>0</v>
       </c>
       <c r="M583">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N583">
         <v>0</v>
@@ -29811,10 +29811,10 @@
         <v>0</v>
       </c>
       <c r="M636">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N636">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="637" spans="1:14">
@@ -30471,10 +30471,10 @@
         <v>0</v>
       </c>
       <c r="M651">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N651">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="652" spans="1:14">
@@ -30515,10 +30515,10 @@
         <v>0</v>
       </c>
       <c r="M652">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N652">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="653" spans="1:14">
@@ -30691,10 +30691,10 @@
         <v>0</v>
       </c>
       <c r="M656">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N656">
-        <v>1.98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:14">
@@ -30867,10 +30867,10 @@
         <v>0</v>
       </c>
       <c r="M660">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N660">
-        <v>7.763999999999999</v>
+        <v>10.352</v>
       </c>
     </row>
     <row r="661" spans="1:14">
@@ -30911,10 +30911,10 @@
         <v>0</v>
       </c>
       <c r="M661">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N661">
-        <v>7.257</v>
+        <v>9.676000000000002</v>
       </c>
     </row>
     <row r="662" spans="1:14">
@@ -31175,10 +31175,10 @@
         <v>0</v>
       </c>
       <c r="M667">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N667">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="668" spans="1:14">
@@ -31219,10 +31219,10 @@
         <v>0</v>
       </c>
       <c r="M668">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N668">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="669" spans="1:14">
@@ -31351,10 +31351,10 @@
         <v>0</v>
       </c>
       <c r="M671">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N671">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="672" spans="1:14">
@@ -31395,10 +31395,10 @@
         <v>0</v>
       </c>
       <c r="M672">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N672">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="673" spans="1:14">
@@ -31439,10 +31439,10 @@
         <v>0</v>
       </c>
       <c r="M673">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N673">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="674" spans="1:14">
@@ -31483,10 +31483,10 @@
         <v>0</v>
       </c>
       <c r="M674">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N674">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="675" spans="1:14">
@@ -31527,10 +31527,10 @@
         <v>0</v>
       </c>
       <c r="M675">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N675">
-        <v>17.697</v>
+        <v>23.596</v>
       </c>
     </row>
     <row r="676" spans="1:14">
@@ -31703,10 +31703,10 @@
         <v>0</v>
       </c>
       <c r="M679">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N679">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:14">
@@ -31879,10 +31879,10 @@
         <v>0</v>
       </c>
       <c r="M683">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N683">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="684" spans="1:14">
@@ -31967,10 +31967,10 @@
         <v>0</v>
       </c>
       <c r="M685">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N685">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="686" spans="1:14">
@@ -32011,10 +32011,10 @@
         <v>0</v>
       </c>
       <c r="M686">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N686">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="687" spans="1:14">
@@ -32451,10 +32451,10 @@
         <v>0</v>
       </c>
       <c r="M696">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N696">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="697" spans="1:14">
@@ -32715,10 +32715,10 @@
         <v>0</v>
       </c>
       <c r="M702">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N702">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="703" spans="1:14">
@@ -32891,10 +32891,10 @@
         <v>0</v>
       </c>
       <c r="M706">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N706">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="707" spans="1:14">
@@ -34079,10 +34079,10 @@
         <v>0</v>
       </c>
       <c r="M733">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N733">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="734" spans="1:14">
@@ -34211,10 +34211,10 @@
         <v>0</v>
       </c>
       <c r="M736">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N736">
-        <v>7.763999999999999</v>
+        <v>65</v>
       </c>
     </row>
     <row r="737" spans="1:14">
@@ -34475,10 +34475,10 @@
         <v>0</v>
       </c>
       <c r="M742">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N742">
-        <v>8.472</v>
+        <v>11.296</v>
       </c>
     </row>
     <row r="743" spans="1:14">
@@ -34519,10 +34519,10 @@
         <v>0</v>
       </c>
       <c r="M743">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N743">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="744" spans="1:14">
@@ -34827,10 +34827,10 @@
         <v>0</v>
       </c>
       <c r="M750">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N750">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:14">
@@ -34871,10 +34871,10 @@
         <v>0</v>
       </c>
       <c r="M751">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N751">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:14">
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="M756">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N756">
-        <v>0.051</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="757" spans="1:14">
@@ -35135,10 +35135,10 @@
         <v>0</v>
       </c>
       <c r="M757">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N757">
-        <v>7.257</v>
+        <v>9.676000000000002</v>
       </c>
     </row>
     <row r="758" spans="1:14">
@@ -35179,10 +35179,10 @@
         <v>0</v>
       </c>
       <c r="M758">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N758">
-        <v>7.257</v>
+        <v>9.676000000000002</v>
       </c>
     </row>
     <row r="759" spans="1:14">
@@ -35223,10 +35223,10 @@
         <v>0</v>
       </c>
       <c r="M759">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N759">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="760" spans="1:14">
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="M760">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N760">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="761" spans="1:14">
@@ -36411,10 +36411,10 @@
         <v>0</v>
       </c>
       <c r="M786">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N786">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="787" spans="1:14">
@@ -36895,10 +36895,10 @@
         <v>0</v>
       </c>
       <c r="M797">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N797">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="798" spans="1:14">
@@ -37027,10 +37027,10 @@
         <v>0</v>
       </c>
       <c r="M800">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N800">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="801" spans="1:14">
@@ -37115,10 +37115,10 @@
         <v>0</v>
       </c>
       <c r="M802">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N802">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="803" spans="1:14">
@@ -37159,10 +37159,10 @@
         <v>0</v>
       </c>
       <c r="M803">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N803">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="804" spans="1:14">
@@ -37203,10 +37203,10 @@
         <v>0</v>
       </c>
       <c r="M804">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N804">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="805" spans="1:14">
@@ -37291,10 +37291,10 @@
         <v>0</v>
       </c>
       <c r="M806">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N806">
-        <v>6.6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="807" spans="1:14">
@@ -37555,10 +37555,10 @@
         <v>0</v>
       </c>
       <c r="M812">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N812">
-        <v>7.244999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:14">
@@ -37599,10 +37599,10 @@
         <v>0</v>
       </c>
       <c r="M813">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N813">
-        <v>5.184</v>
+        <v>65</v>
       </c>
     </row>
     <row r="814" spans="1:14">
@@ -37731,10 +37731,10 @@
         <v>0</v>
       </c>
       <c r="M816">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N816">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="817" spans="1:14">
@@ -37995,10 +37995,10 @@
         <v>0</v>
       </c>
       <c r="M822">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N822">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="823" spans="1:14">
@@ -38303,10 +38303,10 @@
         <v>0</v>
       </c>
       <c r="M829">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N829">
-        <v>6.6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="830" spans="1:14">
@@ -38347,10 +38347,10 @@
         <v>0</v>
       </c>
       <c r="M830">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N830">
-        <v>6.6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="831" spans="1:14">
@@ -38611,10 +38611,10 @@
         <v>0</v>
       </c>
       <c r="M836">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N836">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="837" spans="1:14">
@@ -38699,10 +38699,10 @@
         <v>0</v>
       </c>
       <c r="M838">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N838">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="839" spans="1:14">
@@ -38743,10 +38743,10 @@
         <v>0</v>
       </c>
       <c r="M839">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N839">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="840" spans="1:14">
@@ -38787,10 +38787,10 @@
         <v>0</v>
       </c>
       <c r="M840">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N840">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="841" spans="1:14">
@@ -39007,10 +39007,10 @@
         <v>0</v>
       </c>
       <c r="M845">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N845">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="846" spans="1:14">
@@ -39271,10 +39271,10 @@
         <v>0</v>
       </c>
       <c r="M851">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N851">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="852" spans="1:14">
@@ -39535,10 +39535,10 @@
         <v>0</v>
       </c>
       <c r="M857">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N857">
-        <v>8.819999999999999</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="858" spans="1:14">
@@ -39799,10 +39799,10 @@
         <v>0</v>
       </c>
       <c r="M863">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N863">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="864" spans="1:14">
@@ -39843,10 +39843,10 @@
         <v>0</v>
       </c>
       <c r="M864">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N864">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="865" spans="1:14">
@@ -39887,10 +39887,10 @@
         <v>0</v>
       </c>
       <c r="M865">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N865">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="866" spans="1:14">
@@ -39931,10 +39931,10 @@
         <v>0</v>
       </c>
       <c r="M866">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N866">
-        <v>1.602</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="867" spans="1:14">
@@ -39975,10 +39975,10 @@
         <v>0</v>
       </c>
       <c r="M867">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N867">
-        <v>3.201</v>
+        <v>4.268</v>
       </c>
     </row>
     <row r="868" spans="1:14">
@@ -40107,10 +40107,10 @@
         <v>0</v>
       </c>
       <c r="M870">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N870">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="871" spans="1:14">
@@ -40151,10 +40151,10 @@
         <v>0</v>
       </c>
       <c r="M871">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N871">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="872" spans="1:14">
@@ -41163,10 +41163,10 @@
         <v>0</v>
       </c>
       <c r="M894">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N894">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="895" spans="1:14">
@@ -41207,10 +41207,10 @@
         <v>0</v>
       </c>
       <c r="M895">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N895">
-        <v>6.6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="896" spans="1:14">
@@ -41251,10 +41251,10 @@
         <v>0</v>
       </c>
       <c r="M896">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N896">
-        <v>5.184</v>
+        <v>5</v>
       </c>
     </row>
     <row r="897" spans="1:14">
@@ -41471,7 +41471,7 @@
         <v>0</v>
       </c>
       <c r="M901">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N901">
         <v>0</v>
@@ -41911,7 +41911,7 @@
         <v>0</v>
       </c>
       <c r="M911">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N911">
         <v>0</v>
@@ -41955,7 +41955,7 @@
         <v>0</v>
       </c>
       <c r="M912">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N912">
         <v>0</v>
@@ -42043,10 +42043,10 @@
         <v>1</v>
       </c>
       <c r="M914">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N914">
-        <v>27.6</v>
+        <v>36.8</v>
       </c>
     </row>
     <row r="915" spans="1:14">
@@ -42087,7 +42087,7 @@
         <v>0</v>
       </c>
       <c r="M915">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N915">
         <v>0</v>
@@ -42439,7 +42439,7 @@
         <v>0</v>
       </c>
       <c r="M923">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N923">
         <v>0</v>
@@ -42703,10 +42703,10 @@
         <v>1</v>
       </c>
       <c r="M929">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N929">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="930" spans="1:14">
@@ -42747,7 +42747,7 @@
         <v>0</v>
       </c>
       <c r="M930">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N930">
         <v>0</v>
@@ -42835,7 +42835,7 @@
         <v>0</v>
       </c>
       <c r="M932">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N932">
         <v>0</v>
@@ -42879,7 +42879,7 @@
         <v>0</v>
       </c>
       <c r="M933">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N933">
         <v>0</v>
@@ -42967,7 +42967,7 @@
         <v>0</v>
       </c>
       <c r="M935">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N935">
         <v>0</v>
@@ -43011,7 +43011,7 @@
         <v>0</v>
       </c>
       <c r="M936">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N936">
         <v>0</v>
@@ -43495,7 +43495,7 @@
         <v>0</v>
       </c>
       <c r="M947">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N947">
         <v>0</v>
@@ -43539,7 +43539,7 @@
         <v>0</v>
       </c>
       <c r="M948">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N948">
         <v>0</v>
@@ -43627,7 +43627,7 @@
         <v>0</v>
       </c>
       <c r="M950">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N950">
         <v>0</v>
@@ -43891,7 +43891,7 @@
         <v>0</v>
       </c>
       <c r="M956">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N956">
         <v>0</v>
@@ -43935,7 +43935,7 @@
         <v>0</v>
       </c>
       <c r="M957">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N957">
         <v>0</v>
@@ -43979,7 +43979,7 @@
         <v>0</v>
       </c>
       <c r="M958">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N958">
         <v>0</v>
@@ -44111,7 +44111,7 @@
         <v>0</v>
       </c>
       <c r="M961">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N961">
         <v>0</v>
@@ -44155,7 +44155,7 @@
         <v>0</v>
       </c>
       <c r="M962">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N962">
         <v>0</v>
@@ -44331,7 +44331,7 @@
         <v>0</v>
       </c>
       <c r="M966">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N966">
         <v>0</v>
@@ -44419,7 +44419,7 @@
         <v>0</v>
       </c>
       <c r="M968">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N968">
         <v>0</v>
@@ -44507,7 +44507,7 @@
         <v>0</v>
       </c>
       <c r="M970">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N970">
         <v>0</v>
@@ -44595,7 +44595,7 @@
         <v>0</v>
       </c>
       <c r="M972">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N972">
         <v>0</v>
@@ -44639,7 +44639,7 @@
         <v>0</v>
       </c>
       <c r="M973">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N973">
         <v>0</v>
@@ -44683,7 +44683,7 @@
         <v>0</v>
       </c>
       <c r="M974">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N974">
         <v>0</v>
@@ -44727,7 +44727,7 @@
         <v>0</v>
       </c>
       <c r="M975">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N975">
         <v>0</v>
@@ -44947,7 +44947,7 @@
         <v>0</v>
       </c>
       <c r="M980">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N980">
         <v>0</v>
@@ -44991,7 +44991,7 @@
         <v>0</v>
       </c>
       <c r="M981">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N981">
         <v>0</v>
@@ -45079,7 +45079,7 @@
         <v>0</v>
       </c>
       <c r="M983">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N983">
         <v>0</v>
@@ -45563,7 +45563,7 @@
         <v>0</v>
       </c>
       <c r="M994">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N994">
         <v>0</v>
@@ -45695,7 +45695,7 @@
         <v>0</v>
       </c>
       <c r="M997">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N997">
         <v>0</v>
@@ -45827,7 +45827,7 @@
         <v>0</v>
       </c>
       <c r="M1000">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1000">
         <v>0</v>
@@ -45959,7 +45959,7 @@
         <v>0</v>
       </c>
       <c r="M1003">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1003">
         <v>0</v>
@@ -46135,7 +46135,7 @@
         <v>0</v>
       </c>
       <c r="M1007">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1007">
         <v>0</v>
@@ -46179,7 +46179,7 @@
         <v>0</v>
       </c>
       <c r="M1008">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1008">
         <v>0</v>
@@ -46223,7 +46223,7 @@
         <v>0</v>
       </c>
       <c r="M1009">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1009">
         <v>0</v>
@@ -46487,7 +46487,7 @@
         <v>0</v>
       </c>
       <c r="M1015">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1015">
         <v>0</v>
@@ -46531,7 +46531,7 @@
         <v>0</v>
       </c>
       <c r="M1016">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N1016">
         <v>0</v>
@@ -46575,7 +46575,7 @@
         <v>0</v>
       </c>
       <c r="M1017">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1017">
         <v>0</v>
@@ -46619,7 +46619,7 @@
         <v>0</v>
       </c>
       <c r="M1018">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1018">
         <v>0</v>
@@ -46795,7 +46795,7 @@
         <v>0</v>
       </c>
       <c r="M1022">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1022">
         <v>0</v>
@@ -46971,7 +46971,7 @@
         <v>0</v>
       </c>
       <c r="M1026">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1026">
         <v>0</v>
@@ -47015,7 +47015,7 @@
         <v>0</v>
       </c>
       <c r="M1027">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1027">
         <v>0</v>
@@ -47059,7 +47059,7 @@
         <v>0</v>
       </c>
       <c r="M1028">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1028">
         <v>0</v>
@@ -47103,7 +47103,7 @@
         <v>0</v>
       </c>
       <c r="M1029">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1029">
         <v>0</v>
@@ -47191,7 +47191,7 @@
         <v>0</v>
       </c>
       <c r="M1031">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1031">
         <v>0</v>
@@ -47323,7 +47323,7 @@
         <v>0</v>
       </c>
       <c r="M1034">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1034">
         <v>0</v>
@@ -47719,7 +47719,7 @@
         <v>0</v>
       </c>
       <c r="M1043">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1043">
         <v>0</v>
@@ -47763,7 +47763,7 @@
         <v>0</v>
       </c>
       <c r="M1044">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1044">
         <v>0</v>
@@ -47807,7 +47807,7 @@
         <v>0</v>
       </c>
       <c r="M1045">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1045">
         <v>0</v>
@@ -48247,7 +48247,7 @@
         <v>0</v>
       </c>
       <c r="M1055">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1055">
         <v>0</v>
@@ -48511,7 +48511,7 @@
         <v>0</v>
       </c>
       <c r="M1061">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1061">
         <v>0</v>
@@ -48555,7 +48555,7 @@
         <v>0</v>
       </c>
       <c r="M1062">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1062">
         <v>0</v>
@@ -48643,7 +48643,7 @@
         <v>0</v>
       </c>
       <c r="M1064">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1064">
         <v>0</v>
@@ -48775,7 +48775,7 @@
         <v>0</v>
       </c>
       <c r="M1067">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1067">
         <v>0</v>
@@ -49083,7 +49083,7 @@
         <v>0</v>
       </c>
       <c r="M1074">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1074">
         <v>0</v>
@@ -49127,7 +49127,7 @@
         <v>0</v>
       </c>
       <c r="M1075">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1075">
         <v>0</v>
@@ -49259,7 +49259,7 @@
         <v>0</v>
       </c>
       <c r="M1078">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1078">
         <v>0</v>
@@ -49303,7 +49303,7 @@
         <v>0</v>
       </c>
       <c r="M1079">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1079">
         <v>0</v>
@@ -49347,7 +49347,7 @@
         <v>0</v>
       </c>
       <c r="M1080">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1080">
         <v>0</v>
@@ -49391,7 +49391,7 @@
         <v>0</v>
       </c>
       <c r="M1081">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1081">
         <v>0</v>
@@ -49435,7 +49435,7 @@
         <v>0</v>
       </c>
       <c r="M1082">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1082">
         <v>0</v>
@@ -49611,7 +49611,7 @@
         <v>0</v>
       </c>
       <c r="M1086">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1086">
         <v>0</v>
@@ -49655,7 +49655,7 @@
         <v>0</v>
       </c>
       <c r="M1087">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1087">
         <v>0</v>
@@ -49699,7 +49699,7 @@
         <v>0</v>
       </c>
       <c r="M1088">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1088">
         <v>0</v>
@@ -49743,7 +49743,7 @@
         <v>0</v>
       </c>
       <c r="M1089">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1089">
         <v>0</v>
@@ -50227,7 +50227,7 @@
         <v>0</v>
       </c>
       <c r="M1100">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1100">
         <v>0</v>
@@ -50843,7 +50843,7 @@
         <v>0</v>
       </c>
       <c r="M1114">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1114">
         <v>0</v>
@@ -51063,7 +51063,7 @@
         <v>0</v>
       </c>
       <c r="M1119">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N1119">
         <v>0</v>
@@ -51239,7 +51239,7 @@
         <v>0</v>
       </c>
       <c r="M1123">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1123">
         <v>0</v>
@@ -51723,7 +51723,7 @@
         <v>0</v>
       </c>
       <c r="M1134">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1134">
         <v>0</v>
@@ -51811,7 +51811,7 @@
         <v>0</v>
       </c>
       <c r="M1136">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1136">
         <v>0</v>
@@ -51855,7 +51855,7 @@
         <v>0</v>
       </c>
       <c r="M1137">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1137">
         <v>0</v>
@@ -51899,7 +51899,7 @@
         <v>0</v>
       </c>
       <c r="M1138">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1138">
         <v>0</v>
@@ -51987,7 +51987,7 @@
         <v>0</v>
       </c>
       <c r="M1140">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1140">
         <v>0</v>
@@ -52031,7 +52031,7 @@
         <v>0</v>
       </c>
       <c r="M1141">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N1141">
         <v>0</v>
@@ -52075,7 +52075,7 @@
         <v>0</v>
       </c>
       <c r="M1142">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1142">
         <v>0</v>
@@ -53175,7 +53175,7 @@
         <v>0</v>
       </c>
       <c r="M1167">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1167">
         <v>0</v>
@@ -53307,7 +53307,7 @@
         <v>0</v>
       </c>
       <c r="M1170">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1170">
         <v>0</v>
@@ -53395,7 +53395,7 @@
         <v>0</v>
       </c>
       <c r="M1172">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N1172">
         <v>0</v>
